--- a/data/trans_bre/P14B23-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,81</t>
+          <t>-1,31; 3,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,42</t>
+          <t>0,14; 4,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,35</t>
+          <t>0,9; 5,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 663,39</t>
+          <t>-85,14; 706,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1246,87</t>
+          <t>-19,29; 1420,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 412,41</t>
+          <t>13,15; 418,05</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,64</t>
+          <t>-1,23; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,16</t>
+          <t>-0,66; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,22</t>
+          <t>1,79; 7,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 370,63</t>
+          <t>-50,72; 386,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 521,81</t>
+          <t>-45,62; 677,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,84; 456,94</t>
+          <t>38,38; 443,1</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,91</t>
+          <t>0,67; 8,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 14,56</t>
+          <t>3,64; 13,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,4</t>
+          <t>2,81; 12,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 266,47</t>
+          <t>9,04; 268,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>167,76; 1916,0</t>
+          <t>156,95; 1625,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,34; 840,35</t>
+          <t>50,51; 919,69</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,23</t>
+          <t>1,91; 6,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,37</t>
+          <t>0,62; 4,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,76</t>
+          <t>-2,16; 3,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,72; 274,01</t>
+          <t>49,89; 284,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 220,31</t>
+          <t>17,95; 248,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 98,48</t>
+          <t>-40,56; 100,68</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,2</t>
+          <t>7,1; 12,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,34</t>
+          <t>3,9; 9,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,14</t>
+          <t>0,9; 6,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>252,86; 1460,62</t>
+          <t>255,58; 1318,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,06; 410,45</t>
+          <t>84,49; 422,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 212,06</t>
+          <t>13,83; 205,61</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,79</t>
+          <t>7,99; 11,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,83</t>
+          <t>6,2; 10,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,5</t>
+          <t>-1,31; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 304,25</t>
+          <t>-24,85; 307,3</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,93</t>
+          <t>4,43; 6,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,75</t>
+          <t>3,77; 5,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,92</t>
+          <t>2,16; 4,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>163,48; 344,12</t>
+          <t>151,79; 324,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>162,12; 361,55</t>
+          <t>162,78; 359,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,87; 165,14</t>
+          <t>52,32; 166,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14B23-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
